--- a/xlsx/testdb.xlsx
+++ b/xlsx/testdb.xlsx
@@ -4,56 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="8955"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
-  <si>
-    <t>제품번호(num)</t>
-  </si>
-  <si>
-    <t>웜쿨(wc)</t>
-  </si>
-  <si>
-    <t>계절톤(season)</t>
-  </si>
-  <si>
-    <t>세부톤(int tone)</t>
-  </si>
-  <si>
-    <t>브랜드명(brand)</t>
-  </si>
-  <si>
-    <t>제품명(name)</t>
-  </si>
-  <si>
-    <t>가격(price)</t>
-  </si>
-  <si>
-    <t>용량(string size)</t>
-  </si>
-  <si>
-    <t>찜하기수(zzim)</t>
-  </si>
-  <si>
-    <t>제품군(pro_type)(립-립스틱,립틴트,립글로스)</t>
-  </si>
-  <si>
-    <t>펄유무(boolean glitter)</t>
-  </si>
-  <si>
-    <t>제품제형(texture)(립-매트,글로시)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>T001</t>
   </si>
@@ -136,15 +100,9 @@
     <t>liptint</t>
   </si>
   <si>
-    <t>T007</t>
-  </si>
-  <si>
     <t>light</t>
   </si>
   <si>
-    <t>쿠션틴트 4</t>
-  </si>
-  <si>
     <t>1.8g</t>
   </si>
   <si>
@@ -218,6 +176,122 @@
   </si>
   <si>
     <t>3g</t>
+  </si>
+  <si>
+    <t>T013</t>
+  </si>
+  <si>
+    <t>페리스잉크 5호</t>
+  </si>
+  <si>
+    <t>T014</t>
+  </si>
+  <si>
+    <t>잉크더촉촉 2호</t>
+  </si>
+  <si>
+    <t>T015</t>
+  </si>
+  <si>
+    <t>T016</t>
+  </si>
+  <si>
+    <t>더샘</t>
+  </si>
+  <si>
+    <t>에코소울 키스 버튼 립스 7</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>T018</t>
+  </si>
+  <si>
+    <t>에뛰드</t>
+  </si>
+  <si>
+    <t>디어마이 블루밍 립스톡 쉬폰 BE108</t>
+  </si>
+  <si>
+    <t>3.4g</t>
+  </si>
+  <si>
+    <t>T019</t>
+  </si>
+  <si>
+    <t>워너비 쿠션틴트 4</t>
+  </si>
+  <si>
+    <t>T020</t>
+  </si>
+  <si>
+    <t>잉크젤스틱 PK00</t>
+  </si>
+  <si>
+    <t>1.5g</t>
+  </si>
+  <si>
+    <t>디어마이 블루밍 립스톡 쉬폰 BE109</t>
+  </si>
+  <si>
+    <t>디어마이 블루밍 립스톡 쉬폰 BE110</t>
+  </si>
+  <si>
+    <t>T021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -263,7 +337,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,460 +654,813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="11" max="12" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
         <v>9000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>9000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>9000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
       <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>8000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8500</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>8000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2">
         <v>8000</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G17" s="4">
+        <v>9500</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="2">
-        <v>8000</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8500</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="4">
+        <v>13000</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="4">
+        <v>9500</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="4">
+        <v>9500</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L13"/>
+  <autoFilter ref="A1:L12"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
